--- a/biology/Zoologie/Adelastes_hylonomos/Adelastes_hylonomos.xlsx
+++ b/biology/Zoologie/Adelastes_hylonomos/Adelastes_hylonomos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelastes hylonomos, unique représentant du genre Adelastes et de la sous-famille des Adelastinae, est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelastes hylonomos, unique représentant du genre Adelastes et de la sous-famille des Adelastinae, est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Venezuela dans l'État d'Amazonas au pied du Cerro Neblina, à proximité du Rio Baria dans le bassin amazonien ;
 au Brésil dans l'État d'Amazonas dans la municipalité de Santa Isabel do Rio Negro.
-Cette espèce terrestre vit sur la litière de feuille des forêts tropicales humides de basse altitude[2]
+Cette espèce terrestre vit sur la litière de feuille des forêts tropicales humides de basse altitude
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelastes hylonomos mesure de 24,6 à 28,9 mm pour les mâles, la taille des femelles n'est pas connue. Son dos est uniformément brun foncé et son ventre pâle[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelastes hylonomos mesure de 24,6 à 28,9 mm pour les mâles, la taille des femelles n'est pas connue. Son dos est uniformément brun foncé et son ventre pâle. 
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec hylonomos, « de la forêt profonde », lui a été donné en référence à son habitat.
 </t>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peloso, Frost, Richards, Rodrigues, Donnellan, Matsui, Raxworthy, Biju, Lemmon, Lemmon &amp; Wheeler, 2015 : The impact of anchored phylogenomics and taxon sampling on phylogenetic inference in narrow-mouthed frogs (Anura, Microhylidae). Cladistics, p. 1–28.
 Zweifel, 1986 : A new genus and species of microhylid frog from the Cerro de la Neblina region of Venezuela and a discussion of relationships among New World microhylid genera. American Museum Novitates, no 2863, p. 1-24 (texte intégral).</t>
